--- a/docs/Antlr静态检测测试用例.xlsx
+++ b/docs/Antlr静态检测测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\DetectionAndFixOfHiveQLAntiPattern\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782B2BB5-1A00-416C-9E5C-4C27BD67E99B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4F7F75-3410-4188-9ED2-C3369503102A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="504" yWindow="696" windowWidth="30096" windowHeight="16560" xr2:uid="{136150B0-F801-0E45-82D5-1296C4580FD4}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="113">
   <si>
     <t>Antipattern</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,10 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>group by不和聚集函数搭配使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在大表中(频繁)使用count(distinct )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -455,6 +451,30 @@
   </si>
   <si>
     <t>select count(distinct col1) from (select col2,col1 from t2 where col2 &gt;100) as t1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t3.subname,t4.age from (select t1.subname,t2.age from t1 inner join t2 on t1.id = t2.id) as t3 inner join t4 on t4.name = t3.name;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">select  t1.subname,t4.age from t1 
+inner join t2 on t1.id = t2.id 
+inner join t4 on t4.name = t1.name
+确保尽可能多的匹配满足条件，减少Where的执行，此外强制禁止3个以上的join嵌套。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group by没有与聚集函数搭配使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select col1,col2 from t1 group by col1,col2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示使用聚集函数，如sum()
+select sum(col1),col2 from t1 group by col1,col2;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,7 +523,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -531,6 +551,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,7 +590,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -616,29 +642,32 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -956,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAF55D8-6123-6844-AB14-D7B75BAB7430}">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -973,7 +1002,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>0</v>
@@ -991,436 +1020,440 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" s="5" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="19">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" s="5" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19">
+      <c r="A8" s="22">
         <v>2</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="24" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22">
+        <v>3</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
-        <v>3</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="18" t="s">
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22">
+        <v>4</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F19" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
-        <v>4</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
       <c r="G21" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J21" s="15"/>
-    </row>
-    <row r="22" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="J22" s="15"/>
-    </row>
-    <row r="23" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" ht="187.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="22">
+        <v>5</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:10" ht="187.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19">
-        <v>5</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="18" t="s">
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" s="21"/>
+      <c r="I27" s="19"/>
+    </row>
+    <row r="28" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="22">
+        <v>6</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="22"/>
-    </row>
-    <row r="28" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19">
-        <v>6</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="24" t="s">
         <v>7</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -1429,473 +1462,477 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
       <c r="G31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
       <c r="G33" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" t="s">
+        <v>61</v>
+      </c>
+      <c r="J33" s="15"/>
+    </row>
+    <row r="34" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="22"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J33" s="15"/>
-    </row>
-    <row r="34" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="19">
+      <c r="A36" s="22">
         <v>7</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18" t="s">
+      <c r="C36" s="24"/>
+      <c r="D36" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="24" t="s">
         <v>24</v>
       </c>
       <c r="G36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="22"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="22"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="22"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="19"/>
+    </row>
+    <row r="40" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="22"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="19"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="19"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="3" t="s">
+      <c r="H40" s="7"/>
+      <c r="I40" s="19"/>
+    </row>
+    <row r="41" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="22"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="19"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="22"/>
-    </row>
-    <row r="40" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="19"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="22"/>
-    </row>
-    <row r="41" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="3" t="s">
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="22"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="19"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J42" s="15"/>
     </row>
     <row r="43" spans="1:10" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="19">
+      <c r="A43" s="22">
         <v>8</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="24" t="s">
         <v>24</v>
       </c>
       <c r="G43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="22"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="19"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="3" t="s">
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="22"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="3" t="s">
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="22"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="19"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="3" t="s">
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="22"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="19"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="3" t="s">
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:10" ht="118.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="22">
+        <v>9</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="1:10" ht="118.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="19">
-        <v>9</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" s="3" t="s">
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="22"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="19"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="3" t="s">
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="22"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="19"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="22"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="22"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="22">
+        <v>10</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="22"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="19"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="19"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="19">
-        <v>10</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="19"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="3" t="s">
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="22"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H55" s="7"/>
+      <c r="I55" s="19"/>
+    </row>
+    <row r="56" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="22"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="22"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="19"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H55" s="7"/>
-      <c r="I55" s="22"/>
-    </row>
-    <row r="56" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="19"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="19"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="3" t="s">
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="22"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="H57" s="6"/>
-    </row>
-    <row r="58" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="19"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="67.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="22">
+        <v>11</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="22"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="67.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="19">
-        <v>11</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E59" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="19"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="19"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
       <c r="G61" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H61" s="8"/>
+      <c r="I61" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="H61" s="8"/>
-      <c r="I61" s="22" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="62" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A62" s="19"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
       <c r="G62" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H62" s="7"/>
-      <c r="I62" s="22"/>
+      <c r="I62" s="19"/>
     </row>
     <row r="63" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="19"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
       <c r="G63" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H63" s="7"/>
     </row>
@@ -1911,82 +1948,82 @@
       <c r="A66" s="5">
         <v>12</v>
       </c>
-      <c r="B66" s="23" t="s">
-        <v>100</v>
+      <c r="B66" s="20" t="s">
+        <v>99</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="E1:E65" xr:uid="{3598CB9C-47B2-420D-8BD0-FE652B244431}"/>
   <mergeCells count="66">
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="F48:F52"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="F43:F47"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="C36:C42"/>
+    <mergeCell ref="D36:D42"/>
+    <mergeCell ref="E36:E42"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="F30:F35"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="F19:F24"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="D13:D18"/>
+    <mergeCell ref="E13:E18"/>
+    <mergeCell ref="F13:F18"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="D53:D58"/>
+    <mergeCell ref="E53:E58"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="F59:F63"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A25:A29"/>
     <mergeCell ref="A59:A63"/>
     <mergeCell ref="A30:A35"/>
     <mergeCell ref="A36:A42"/>
     <mergeCell ref="A43:A47"/>
     <mergeCell ref="A48:A52"/>
     <mergeCell ref="A53:A58"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="D59:D63"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="F59:F63"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="D53:D58"/>
-    <mergeCell ref="E53:E58"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="D13:D18"/>
-    <mergeCell ref="E13:E18"/>
-    <mergeCell ref="F13:F18"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="E19:E24"/>
-    <mergeCell ref="F19:F24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="C30:C35"/>
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="F30:F35"/>
-    <mergeCell ref="B36:B42"/>
-    <mergeCell ref="C36:C42"/>
-    <mergeCell ref="D36:D42"/>
-    <mergeCell ref="E36:E42"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="F43:F47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="F48:F52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Antlr静态检测测试用例.xlsx
+++ b/docs/Antlr静态检测测试用例.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\DetectionAndFixOfHiveQLAntiPattern\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4F7F75-3410-4188-9ED2-C3369503102A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456C0B5B-AB86-449F-BB42-B9A5C838DCE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="504" yWindow="696" windowWidth="30096" windowHeight="16560" xr2:uid="{136150B0-F801-0E45-82D5-1296C4580FD4}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="120">
   <si>
     <t>Antipattern</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,10 +418,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在SQL中使用字符串匹配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select col1,col2 from (select t1.col1,t1.col2,t2.col3 from t1 join t2 on t1.id = t2.id) as t1 group by col1,col2;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -443,10 +439,6 @@
   </si>
   <si>
     <t>select t1.col1, t1.col2, t2.col3 from t1 join t2 on t1.col1 = t2.col1 group by t2.col1, t1.col2, t2.col3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select t1.name,t1.age from t1 where  t1.name like "zhang%"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -475,6 +467,42 @@
   <si>
     <t>提示使用聚集函数，如sum()
 select sum(col1),col2 from t1 group by col1,col2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>performance issue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL字符串匹配以通配符开头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用reverse函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select col1，col2 from table1 where col1 like '%p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select col1，col2 from table1 where col1 like 'p%‘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select cl1,col2 from table1 where col1 like '%p%'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select col1, col2 from table1 where col1 like '%p'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select col1, col2 from table1 where reverse(col1) like reverse('%p')</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,7 +618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -621,9 +649,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -651,23 +676,32 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -983,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAF55D8-6123-6844-AB14-D7B75BAB7430}">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1004,7 +1038,7 @@
       <c r="A1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1028,27 +1062,27 @@
       <c r="I1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="24" t="s">
+      <c r="C2" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="21" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1057,86 +1091,86 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:10" s="5" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="12" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="11" t="s">
         <v>50</v>
       </c>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="12"/>
       <c r="I7" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="15"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="23">
         <v>2</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="21" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -1145,68 +1179,68 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22">
+      <c r="A13" s="23">
         <v>3</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="21" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -1215,83 +1249,83 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="19" t="s">
+      <c r="H15" s="16"/>
+      <c r="I15" s="18" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="3" t="s">
         <v>44</v>
       </c>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
       <c r="G18" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22">
+      <c r="A19" s="23">
         <v>4</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="21" t="s">
         <v>7</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -1300,87 +1334,87 @@
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="14"/>
+      <c r="H21" s="13"/>
       <c r="I21" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="15"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="18"/>
-      <c r="J22" s="15"/>
+      <c r="H22" s="17"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="3" t="s">
         <v>52</v>
       </c>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="3" t="s">
         <v>54</v>
       </c>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:10" ht="187.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22">
+      <c r="A25" s="23">
         <v>5</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="21" t="s">
         <v>7</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -1389,71 +1423,71 @@
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="3" t="s">
         <v>56</v>
       </c>
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
       <c r="G27" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="19"/>
+        <v>101</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="18"/>
     </row>
     <row r="28" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
       <c r="G28" s="3" t="s">
         <v>57</v>
       </c>
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="3" t="s">
         <v>58</v>
       </c>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22">
+      <c r="A30" s="23">
         <v>6</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="21" t="s">
         <v>7</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -1462,162 +1496,162 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="3" t="s">
         <v>59</v>
       </c>
       <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="3" t="s">
         <v>60</v>
       </c>
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
       <c r="G33" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" t="s">
         <v>61</v>
       </c>
-      <c r="J33" s="15"/>
+      <c r="J33" s="14"/>
     </row>
     <row r="34" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="12" t="s">
+      <c r="A34" s="23"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="11" t="s">
         <v>98</v>
       </c>
       <c r="H34" s="7"/>
-      <c r="I34" s="19"/>
+      <c r="I34" s="18"/>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
       <c r="G35" s="3" t="s">
         <v>62</v>
       </c>
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="22">
+      <c r="A36" s="23">
         <v>7</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24" t="s">
+      <c r="C36" s="21"/>
+      <c r="D36" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
       <c r="G37" s="3" t="s">
         <v>64</v>
       </c>
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
       <c r="G38" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
       <c r="G39" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H39" s="7"/>
-      <c r="I39" s="19"/>
+      <c r="I39" s="18"/>
     </row>
     <row r="40" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
       <c r="G40" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H40" s="7"/>
-      <c r="I40" s="19"/>
+      <c r="I40" s="18"/>
     </row>
     <row r="41" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
       <c r="G41" s="3" t="s">
         <v>66</v>
       </c>
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
       <c r="G42" s="4" t="s">
         <v>67</v>
       </c>
@@ -1625,23 +1659,23 @@
       <c r="I42" t="s">
         <v>78</v>
       </c>
-      <c r="J42" s="15"/>
+      <c r="J42" s="14"/>
     </row>
     <row r="43" spans="1:10" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="22">
+      <c r="A43" s="23">
         <v>8</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24" t="s">
+      <c r="C43" s="21"/>
+      <c r="D43" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="24" t="s">
+      <c r="E43" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="24" t="s">
+      <c r="F43" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G43" s="3" t="s">
@@ -1650,70 +1684,70 @@
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
       <c r="G44" s="3" t="s">
         <v>69</v>
       </c>
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
       <c r="G45" s="3" t="s">
         <v>70</v>
       </c>
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
       <c r="G46" s="3" t="s">
         <v>71</v>
       </c>
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="22"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
       <c r="G47" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:10" ht="118.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="22">
+      <c r="A48" s="23">
         <v>9</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="24" t="s">
+      <c r="F48" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G48" s="3" t="s">
@@ -1722,24 +1756,24 @@
       <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="22"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
       <c r="G49" s="3" t="s">
         <v>74</v>
       </c>
       <c r="H49" s="7"/>
     </row>
     <row r="50" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="22"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
       <c r="G50" s="4" t="s">
         <v>75</v>
       </c>
@@ -1749,46 +1783,46 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="22"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
       <c r="G51" s="3" t="s">
         <v>76</v>
       </c>
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
       <c r="G52" s="3" t="s">
         <v>77</v>
       </c>
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="22">
+      <c r="A53" s="23">
         <v>10</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E53" s="24" t="s">
+      <c r="E53" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="24" t="s">
+      <c r="F53" s="21" t="s">
         <v>7</v>
       </c>
       <c r="G53" s="3" t="s">
@@ -1797,61 +1831,61 @@
       <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="22"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
       <c r="G54" s="3" t="s">
         <v>80</v>
       </c>
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="22"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
       <c r="G55" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H55" s="7"/>
-      <c r="I55" s="19"/>
+      <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="22"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
       <c r="G56" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="22"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
       <c r="G57" s="3" t="s">
         <v>81</v>
       </c>
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="22"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
       <c r="G58" s="4" t="s">
         <v>82</v>
       </c>
@@ -1861,22 +1895,22 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="67.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="22">
+      <c r="A59" s="23">
         <v>11</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E59" s="24" t="s">
+      <c r="E59" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="21" t="s">
         <v>7</v>
       </c>
       <c r="G59" s="3" t="s">
@@ -1885,145 +1919,195 @@
       <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="22"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
       <c r="G60" s="3" t="s">
         <v>84</v>
       </c>
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="22"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
       <c r="G61" s="3" t="s">
         <v>93</v>
       </c>
       <c r="H61" s="8"/>
-      <c r="I61" s="19" t="s">
+      <c r="I61" s="18" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A62" s="22"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
       <c r="G62" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H62" s="7"/>
-      <c r="I62" s="19"/>
+      <c r="I62" s="18"/>
     </row>
     <row r="63" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="22"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
       <c r="G63" s="3" t="s">
         <v>92</v>
       </c>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B64"/>
-      <c r="H64" s="10"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B65"/>
-      <c r="H65" s="10"/>
+    <row r="64" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="24">
+        <v>12</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="F64" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="24"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H65" s="7"/>
     </row>
     <row r="66" spans="1:8" s="5" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="5">
-        <v>12</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>106</v>
-      </c>
+      <c r="A66" s="24"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="24"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H68" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="E1:E65" xr:uid="{3598CB9C-47B2-420D-8BD0-FE652B244431}"/>
-  <mergeCells count="66">
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="F48:F52"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="F43:F47"/>
-    <mergeCell ref="B36:B42"/>
-    <mergeCell ref="C36:C42"/>
-    <mergeCell ref="D36:D42"/>
-    <mergeCell ref="E36:E42"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="C30:C35"/>
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="F30:F35"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="E19:E24"/>
-    <mergeCell ref="F19:F24"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="D13:D18"/>
-    <mergeCell ref="E13:E18"/>
-    <mergeCell ref="F13:F18"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="D53:D58"/>
-    <mergeCell ref="E53:E58"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="D59:D63"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="F59:F63"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A25:A29"/>
+  <mergeCells count="72">
+    <mergeCell ref="F64:F67"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="E64:E67"/>
     <mergeCell ref="A59:A63"/>
     <mergeCell ref="A30:A35"/>
     <mergeCell ref="A36:A42"/>
     <mergeCell ref="A43:A47"/>
     <mergeCell ref="A48:A52"/>
     <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="F59:F63"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="D53:D58"/>
+    <mergeCell ref="E53:E58"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="D13:D18"/>
+    <mergeCell ref="E13:E18"/>
+    <mergeCell ref="F13:F18"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="F19:F24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="F30:F35"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="C36:C42"/>
+    <mergeCell ref="D36:D42"/>
+    <mergeCell ref="E36:E42"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="F43:F47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="F48:F52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Antlr静态检测测试用例.xlsx
+++ b/docs/Antlr静态检测测试用例.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\DetectionAndFixOfHiveQLAntiPattern\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\崔楠\研究生\研一上\科研\hive-antipattern\代码\DetectionAndFixOfHiveQLAntiPattern\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456C0B5B-AB86-449F-BB42-B9A5C838DCE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C344125-775B-4C01-8DC9-47A229629578}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="504" yWindow="696" windowWidth="30096" windowHeight="16560" xr2:uid="{136150B0-F801-0E45-82D5-1296C4580FD4}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$76</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="137">
   <si>
     <t>Antipattern</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,53 +198,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试结果（绿色表示未检测出Anti-pattern，红色表示检测出Anti-pattern）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select t3.subname,t4.age from (select t1.subname,t2.age from t1 join t2 on t1.id = t2.id) as t3 join t4 on t4.name = t3.name;</t>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select t1.col1, t2.col2 from table1 as t1 join table2 as t2 on (t1.col1 + 100 = t2.col2);</t>
-  </si>
-  <si>
-    <t>select t1.col1, t2.col2 from table1 as t1 join table2 as t2 on t1.col1 + 100 = t2.col2;</t>
-  </si>
-  <si>
-    <t>select t1.col1, t2.col2 from table1 as t1 join table2 as t2 on t1.col1  = t2.col2;</t>
-  </si>
-  <si>
-    <t>select t1.col1, t2.col2 from table1 as t1 join (select t3.col3,t4.col2 from t3 join t4 on t3.id = t4.id + 100) as t2 on t1.col1  = t2.col2;</t>
-  </si>
-  <si>
-    <t>select t1.col1, t2.col2 from table1 as t1 join (select t3.col3 from t3 where t3.age + 3 &gt; 18) as t2 on t1.col1  = t2.col2;</t>
-  </si>
-  <si>
-    <t>select t1.col1,t1.col2,t1.col3 from t1;</t>
-  </si>
-  <si>
-    <t>select t1.col1,t1.col2,t1.col3,t2.col4,t2.col5 from t1 inner join t2 on t1.id = t2.id;</t>
-  </si>
-  <si>
-    <t>select * from t1;</t>
-  </si>
-  <si>
-    <t>select t1.col1,t2.col2 from t1 join (select * from t3 where t3.age &gt; 18) as t2;</t>
-  </si>
-  <si>
-    <t>select * from t1 join (select t3.name,t3.sex from t3 where t3.age &gt; 18) as t2;</t>
-  </si>
-  <si>
-    <t>select * from t1 order by age;</t>
-  </si>
-  <si>
-    <t>select * from t1 sort by age;</t>
-  </si>
-  <si>
     <t>select t3.subname,t4.age from (select t1.subname,t2.age from t1 left join t2 on t1.id = t2.id) as t3 inner join t4 on t4.name = t3.name;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,94 +210,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当连接为join时可能产生问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select t1.name,t2.age from t1 inner join t2 on t1.id = t2.id order by t2.age;</t>
-  </si>
-  <si>
     <t>遇到join时会出问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select t1.name,t2.age from t1 inner join (select t3.sex,t4.age from t3 join t4 on t3.name = t4.name order by t3.name) as t2 on t1.id = t2.id</t>
-  </si>
-  <si>
-    <t>SELECT C.CustomerID, C.Name, Count(S.SalesID) FROM Customers as C INNER JOIN Sales as S ON C.CustomerID = S.CustomerID GROUP BY C.CustomerID, C.Name HAVING S.LastSaleDate BETWEEN ‘1/1/2019’ AND ‘12/31/2019’;</t>
-  </si>
-  <si>
-    <t>select deptno, avg(sal) avg_sal from emp group by deptno having avg_sal &gt; 2000;</t>
-  </si>
-  <si>
-    <t>select t1.col1, t2.col2 from t1 join t2 on t1.id = t2.id group by t1.col1 having t2.col2 &gt; 2000;</t>
-  </si>
-  <si>
-    <t>select t1.col1, t2.col2, sum(t1.col1) from t1 join t2 on t1.id = t2.id where t2.col2 &gt; 2000 group by t1.col1,t2.col2;</t>
-  </si>
-  <si>
-    <t>select t1.col1, t2.col2 from table1 as t1 join table2 as t2 on upper(t1.col1) = t2.col2;</t>
-  </si>
-  <si>
     <t>select t1.col1, t2.col2 from table1 as t1 join table2 as t2 on max(t1.col1) = t2.col2;</t>
   </si>
   <si>
-    <t>当join的表没有使用别名机制时会出错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select t1.col1, t2.col2 from t1 inner join t2 on abs(t1.col1) = t2.col2;</t>
-  </si>
-  <si>
-    <t>select col1,col2 from t1 group by col1,col2;</t>
-  </si>
-  <si>
-    <t>select col1,col2 from t1 group by col1;</t>
-  </si>
-  <si>
-    <t>select col1,col2,sum(col3) from t1 group by col1,col2;</t>
-  </si>
-  <si>
-    <t>select col1,col2 from (select t1.col1,t2.col2 from t1 join t2 on t1.id = t2.id) as t3 group by col1;</t>
-  </si>
-  <si>
-    <t>select t3.col1,t3.col2,sum(t3.col1) from (select t1.col1,t2.col2 from t1 join t2 on t1.id = t2.id) as t3 group by t3.col1,t3.col2;</t>
-  </si>
-  <si>
-    <t>select date_sub('2020-9-16', interval 10 days) from a;</t>
-  </si>
-  <si>
-    <t>select date_sub('2020-9-16', 2) from a;</t>
-  </si>
-  <si>
-    <t>select date_sub('2020-9-16', interval 10 days) from a join b on a.id = b.id;</t>
-  </si>
-  <si>
-    <t>select add_months(date_sub(current_date,1),-3) from a join b on a.id = b.id;</t>
-  </si>
-  <si>
-    <t>select current_timestamp() - INTERVAL 10 second from a join b on a.id = b.id;</t>
-  </si>
-  <si>
-    <t>SELECT ID,CASE WHEN col_a = 0 THEN 0 ELSE (col_b / col_a) - col_a END AS math_is_fun FROM t1;</t>
-  </si>
-  <si>
-    <t>SELECT ID,CASE WHEN col_a = 0 THEN 0 ELSE 2.2 END AS math_is_fun FROM t1;</t>
-  </si>
-  <si>
-    <t>SELECT ID,CASE WHEN col_a = 2 THEN 0 ELSE col_a END AS math_is_fun FROM (select t3.col_a,t2.col_b from t3 join t2 on t3.id = t2.id) as t1;</t>
-  </si>
-  <si>
-    <t>SELECT ID,CASE WHEN col_a = 2.2 THEN 0 ELSE col_a END AS math_is_fun FROM (select t3.col_a,t2.col_b from t3 join t2 on t3.id = t2.id) as t1;</t>
-  </si>
-  <si>
-    <t>SELECT ID,CASE WHEN col_a = 0 THEN 0 ELSE 2 END AS math_is_fun FROM (select t3.col_a,t2.col_b from t3 join t2 on t3.id = t2.id) as t1;</t>
-  </si>
-  <si>
-    <t>在有子select语句时可能有问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当then或else后接变量时会出问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,16 +228,10 @@
     <t>select sum(col1),col2 from (select t1.col1,t1.col2,t2.col3 from t1 join t2 on t1.id = t2.id) as t1 group by col1,col2;</t>
   </si>
   <si>
-    <t>select sum(col1),col2 from (select t1.col1,t1.col2,t2.col3 from t1 join t2 on t1.id = t2.id group by t1.col1) as t1 group by col1,col2;</t>
-  </si>
-  <si>
     <t>主查询和子查询只判断一个，后续再评估是否需要debug</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select count(cookie) from weblogs where dt &lt;= ${today} and dt &gt;= ${90daysAgo};</t>
-  </si>
-  <si>
     <t>select e.ename,d.deptno,l.loc_name from e join d ON d.deptno = e.deptno join l on d.loc = l.loc;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -395,10 +265,6 @@
   </si>
   <si>
     <t>select count(col1) from (select distinct col1 from t2 where col2 &gt; 100) as t1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子查询中有distinct，主查询中再做count，后续再评估是否需要debug</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -490,10 +356,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select col1，col2 from table1 where col1 like 'p%‘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select cl1,col2 from table1 where col1 like '%p%'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -503,6 +365,258 @@
   </si>
   <si>
     <t>select col1, col2 from table1 where reverse(col1) like reverse('%p')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果（绿色表示无Anti-pattern，红色表示有Anti-pattern，黄色表示测试中出现问题）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t3.subname,t4.age from (select t1.subname,t2.age from t1 join t2 on t1.id = t2.id) as t3 join t4 on t4.name = t3.name;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from (select userId from table_a where dt=20160731) a join (select userId from table_b where dt=20160731) b  on a.userId=b.userId join (select userId from table_c where dt=20160731) c on a.userId=c.userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还会报“Select *”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边界输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种异常输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊啦啦啦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selct * from t1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t1.a from t2 where t3.b = t4.b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t1.a from t1 join t2 on t1.b = t2.b join t3 on t1.b=t3.b join t4 on t1.b=t4.b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t1.name,t2.age from t1  join t2 on t1.id = t2.id;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t1.col1, t2.col2 from table1 as t1 join (select t3.col3 from t3 where t3.age + 3 &gt; 18) as t2 on t1.col1  = t2.col2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT t1.name,t2.age
+FROM t1  inner Join t2
+ON t1.id = t2.id;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t3.subname,t4.age 
+from (
+select t1.subname,t2.age 
+from t1 inner join t2 
+on t1.id = t2.id
+) as t3 inner join t4 
+on t4.name = t3.name;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t1.col1, t2.col2 from table1 as t1 join table2 as t2 on t1.col1  = t2.col2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示：不要过多使用join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法内容有误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select c from t1 where c&gt;1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t1.col1, t2.col2 from table1 as t1 join table2 as t2 on t1.col1 + 100 = t2.col2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t1.col1, t2.col2 from table1 as t1 join (select t3.col3,t4.col2 from t3 join t4 on t3.id = t4.id + 100) as t2 on t1.col1  = t2.col2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t1.col1, t2.col2 from table1 as t1 join (select t3.col3 from t3 where t3.age - 3 &gt; 18) as t2 on t1.col1  = t2.col2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t1.col1, t2.col2 from table1 as t1 join table2 as t2 on (t1.col1 - 100 = t2.col2);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t1.col1, t2.col2 from table1 as t1 join table2 as t2 on t1.col1 - 100 = t2.col2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t1.col1, t2.col2 from table1 as t1 join table2 as t2 on t1.col1 * 100 = t2.col2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t1.col1, t2.col2 from table1 as t1 join table2 as t2 on t1.col1 / 100 = t2.col2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加号在url里会被转为空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t1.col1,t1.col2,t1.col3 from t1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t1.col1,t1.col2,t1.col3,t2.col4,t2.col5 from t1 inner join t2 on t1.id = t2.id;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from t1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t1.col1,t2.col2 from t1 join (select * from t3 where t3.age &gt; 18) as t2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from t1 join (select t3.name,t3.sex from t3 where t3.age &gt; 18) as t2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from t1 order by age;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from t1 sort by age;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t1.name,t2.age from t1 inner join t2 on t1.id = t2.id order by t2.age;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t1.name,t2.age from t1 inner join (select t3.sex,t4.age from t3 join t4 on t3.name = t4.name order by t3.name) as t2 on t1.id = t2.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT C.CustomerID, C.Name, Count(S.SalesID) FROM Customers as C INNER JOIN Sales as S ON C.CustomerID = S.CustomerID GROUP BY C.CustomerID, C.Name HAVING S.LastSaleDate BETWEEN ‘1/1/2019’ AND ‘12/31/2019’;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select deptno, avg(sal) avg_sal from emp group by deptno having avg_sal &gt; 2000;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t1.col1, t2.col2 from t1 join t2 on t1.id = t2.id group by t1.col1 having t2.col2 &gt; 2000;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t1.col1, t2.col2, sum(t1.col1) from t1 join t2 on t1.id = t2.id where t2.col2 &gt; 2000 group by t1.col1,t2.col2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t1.col1, t2.col2 from table1 as t1 join table2 as t2 on upper(t1.col1) = t2.col2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t1.col1, t2.col2 from t1 inner join t2 on abs(t1.col1) = t2.col2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select col1,col2 from t1 group by col1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select col1,col2,sum(col3) from t1 group by col1,col2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select col1,col2 from (select t1.col1,t2.col2 from t1 join t2 on t1.id = t2.id) as t3 group by col1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t3.col1,t3.col2,sum(t3.col1) from (select t1.col1,t2.col2 from t1 join t2 on t1.id = t2.id) as t3 group by t3.col1,t3.col2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t3.col1,t3.col2,sum(t3.col1) from (select t1.col1,t2.col2 from t1 join t2 on t1.id = t2.id) as t3 group by t3.col2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select date_sub('2020-9-16', interval 10 days) from a;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select date_sub('2020-9-16', 2) from a;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select date_sub('2020-9-16', interval 10 day) from a join b on a.id = b.id;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select add_months(date_sub(current_date,1),-3) from a join b on a.id = b.id;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select current_timestamp() - INTERVAL 10 second from a join b on a.id = b.id;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT ID,CASE WHEN col_a = 0 THEN 0 ELSE (col_b / col_a) - col_a END AS math_is_fun FROM t1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT ID,CASE WHEN col_a = 0 THEN 0 ELSE 2.2 END AS math_is_fun FROM t1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT ID,CASE WHEN col_a = 2 THEN 0 ELSE col_a END AS math_is_fun FROM (select t3.col_a,t2.col_b from t3 join t2 on t3.id = t2.id) as t1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT ID,CASE WHEN col_a = 2.2 THEN 0 ELSE col_a END AS math_is_fun FROM (select t3.col_a,t2.col_b from t3 join t2 on t3.id = t2.id) as t1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT ID,CASE WHEN col_a = 0 THEN 0 ELSE 2 END AS math_is_fun FROM (select t3.col_a,t2.col_b from t3 join t2 on t3.id = t2.id) as t1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select sum(col1),col2 from (select t1.col1,t1.col2,t2.col3 from t1 join t2 on t1.id = t2.id group by t1.col1) as t1 group by col1,col2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(cookie) from weblogs where dt &lt;= ${today} and dt &gt;= ${90daysAgo};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select col1，col2 from table1 where col1 like 'p%'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,7 +624,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -550,8 +664,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -573,18 +702,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,7 +735,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -631,9 +748,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -655,12 +769,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -673,35 +781,53 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1017,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAF55D8-6123-6844-AB14-D7B75BAB7430}">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1030,15 +1156,16 @@
     <col min="4" max="4" width="30.54296875" customWidth="1"/>
     <col min="5" max="5" width="12.453125" customWidth="1"/>
     <col min="6" max="6" width="18.81640625" customWidth="1"/>
-    <col min="7" max="7" width="33.1796875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="26.36328125" customWidth="1"/>
+    <col min="7" max="7" width="33.1796875" style="23" customWidth="1"/>
+    <col min="8" max="8" width="30.08984375" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1053,31 +1180,31 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="22" t="s">
         <v>33</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>86</v>
+      <c r="J1" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>107</v>
+      <c r="C2" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>6</v>
@@ -1085,1029 +1212,1240 @@
       <c r="F2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H2" s="6"/>
+      <c r="G2" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="20"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
-      <c r="G3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="7"/>
+      <c r="G3" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="20"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
-      <c r="G4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" s="5" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="G4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
       <c r="B5" s="20"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
-      <c r="G5" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="7"/>
+      <c r="G5" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="20"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="9"/>
+      <c r="G6" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="20"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
-        <v>2</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="6"/>
+      <c r="G7" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="20"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="7"/>
+      <c r="G9" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="20"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
-      <c r="G10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
+      <c r="G10" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
       <c r="B11" s="20"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
-      <c r="G11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="G11" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
       <c r="B12" s="20"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
-      <c r="G12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23">
-        <v>3</v>
+      <c r="G12" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <v>2</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="21"/>
+        <v>8</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="D13" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
+      <c r="G13" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
       <c r="B14" s="20"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="G14" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
       <c r="B15" s="20"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
-      <c r="G15" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="G15" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
       <c r="B16" s="20"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
-      <c r="G16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="7"/>
+      <c r="G16" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
-      <c r="G17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="7"/>
+      <c r="G17" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="20"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
-        <v>4</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>14</v>
-      </c>
+      <c r="G18" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="21"/>
-      <c r="D19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
       <c r="B20" s="20"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
-      <c r="G20" s="3" t="s">
-        <v>48</v>
+      <c r="G20" s="23" t="s">
+        <v>102</v>
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+    <row r="21" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
       <c r="B21" s="20"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" s="13"/>
-      <c r="I21" t="s">
-        <v>53</v>
-      </c>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="G21" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
       <c r="B22" s="20"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H22" s="17"/>
-      <c r="J22" s="14"/>
-    </row>
-    <row r="23" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="B23" s="20"/>
+      <c r="G22" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="17">
+        <v>3</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>11</v>
+      </c>
       <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="D23" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
       <c r="B24" s="20"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:10" ht="187.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23">
-        <v>5</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="G24" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
       <c r="B26" s="20"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
-      <c r="G26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
+      <c r="G26" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
       <c r="B27" s="20"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
-      <c r="G27" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="18"/>
-    </row>
-    <row r="28" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="G27" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
       <c r="B28" s="20"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
-      <c r="B29" s="20"/>
+      <c r="G28" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="17">
+        <v>4</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="3" t="s">
-        <v>58</v>
+      <c r="D29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:10" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23">
-        <v>6</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="6"/>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
-      <c r="G31" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H31" s="7"/>
+      <c r="G31" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="26"/>
+      <c r="I31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
-      <c r="G32" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H32" s="7"/>
+      <c r="G32" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="14"/>
+      <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
-      <c r="G33" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H33" s="8"/>
-      <c r="I33" t="s">
-        <v>61</v>
-      </c>
-      <c r="J33" s="14"/>
-    </row>
-    <row r="34" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="G33" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
-      <c r="G34" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="23">
+      <c r="G34" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:10" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="17">
+        <v>5</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="20" t="s">
-        <v>22</v>
-      </c>
+      <c r="G35" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H35" s="28"/>
+    </row>
+    <row r="36" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="21"/>
-      <c r="D36" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
-      <c r="G37" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="G37" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
-      <c r="G38" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
+      <c r="G38" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
-      <c r="G39" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="18"/>
+      <c r="G39" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="23"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="18"/>
-    </row>
-    <row r="41" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A40" s="17">
+        <v>6</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="17"/>
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
-      <c r="G41" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="G41" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="17"/>
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
-      <c r="G42" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H42" s="8"/>
-      <c r="I42" t="s">
-        <v>78</v>
-      </c>
-      <c r="J42" s="14"/>
-    </row>
-    <row r="43" spans="1:10" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="23">
-        <v>8</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="G42" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="17"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="21"/>
-      <c r="D43" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="17"/>
       <c r="B44" s="20"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
-      <c r="G44" s="3" t="s">
-        <v>69</v>
+      <c r="G44" s="24" t="s">
+        <v>55</v>
       </c>
       <c r="H44" s="6"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
+      <c r="A45" s="17"/>
       <c r="B45" s="20"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
-      <c r="G45" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="23"/>
-      <c r="B46" s="20"/>
+      <c r="G45" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="17">
+        <v>7</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="23"/>
+      <c r="D46" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="17"/>
       <c r="B47" s="20"/>
       <c r="C47" s="21"/>
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
-      <c r="G47" s="3" t="s">
-        <v>72</v>
+      <c r="G47" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:10" ht="118.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="23">
-        <v>9</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="23"/>
+    <row r="48" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="17"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="17"/>
       <c r="B49" s="20"/>
       <c r="C49" s="21"/>
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
       <c r="F49" s="21"/>
-      <c r="G49" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="23"/>
+      <c r="G49" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="I49" s="10"/>
+    </row>
+    <row r="50" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="17"/>
       <c r="B50" s="20"/>
       <c r="C50" s="21"/>
       <c r="D50" s="21"/>
       <c r="E50" s="21"/>
       <c r="F50" s="21"/>
-      <c r="G50" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H50" s="8"/>
-      <c r="I50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="23"/>
+      <c r="G50" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="10"/>
+    </row>
+    <row r="51" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="17"/>
       <c r="B51" s="20"/>
       <c r="C51" s="21"/>
       <c r="D51" s="21"/>
       <c r="E51" s="21"/>
       <c r="F51" s="21"/>
-      <c r="G51" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
+      <c r="G51" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="17"/>
       <c r="B52" s="20"/>
       <c r="C52" s="21"/>
       <c r="D52" s="21"/>
       <c r="E52" s="21"/>
       <c r="F52" s="21"/>
-      <c r="G52" s="3" t="s">
-        <v>77</v>
+      <c r="G52" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="23">
-        <v>10</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E53" s="21" t="s">
+    <row r="53" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="17"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H53" s="5"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="17">
+        <v>8</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="23"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="3" t="s">
-        <v>80</v>
+      <c r="F54" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="23"/>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="17"/>
       <c r="B55" s="20"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
       <c r="E55" s="21"/>
       <c r="F55" s="21"/>
-      <c r="G55" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H55" s="7"/>
-      <c r="I55" s="18"/>
-    </row>
-    <row r="56" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="23"/>
+      <c r="G55" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="17"/>
       <c r="B56" s="20"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
       <c r="E56" s="21"/>
       <c r="F56" s="21"/>
-      <c r="G56" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="23"/>
+      <c r="G56" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="17"/>
       <c r="B57" s="20"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
       <c r="E57" s="21"/>
       <c r="F57" s="21"/>
-      <c r="G57" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H57" s="6"/>
-    </row>
-    <row r="58" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="23"/>
+      <c r="G57" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="17"/>
       <c r="B58" s="20"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
       <c r="E58" s="21"/>
       <c r="F58" s="21"/>
-      <c r="G58" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H58" s="8"/>
-      <c r="I58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="67.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="23">
-        <v>11</v>
+      <c r="G58" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="17">
+        <v>9</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E59" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="23"/>
+        <v>24</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="17"/>
       <c r="B60" s="20"/>
       <c r="C60" s="21"/>
       <c r="D60" s="21"/>
       <c r="E60" s="21"/>
       <c r="F60" s="21"/>
-      <c r="G60" s="3" t="s">
-        <v>84</v>
+      <c r="G60" s="23" t="s">
+        <v>130</v>
       </c>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="23"/>
+    <row r="61" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="17"/>
       <c r="B61" s="20"/>
       <c r="C61" s="21"/>
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
       <c r="F61" s="21"/>
-      <c r="G61" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H61" s="8"/>
-      <c r="I61" s="18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A62" s="23"/>
+      <c r="G61" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="H61" s="7"/>
+      <c r="I61" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="17"/>
       <c r="B62" s="20"/>
       <c r="C62" s="21"/>
       <c r="D62" s="21"/>
       <c r="E62" s="21"/>
       <c r="F62" s="21"/>
-      <c r="G62" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H62" s="7"/>
-      <c r="I62" s="18"/>
-    </row>
-    <row r="63" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="23"/>
+      <c r="G62" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="17"/>
       <c r="B63" s="20"/>
       <c r="C63" s="21"/>
       <c r="D63" s="21"/>
       <c r="E63" s="21"/>
       <c r="F63" s="21"/>
-      <c r="G63" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H63" s="7"/>
-    </row>
-    <row r="64" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A64" s="24">
+      <c r="G63" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="17">
+        <v>10</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="17"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="17"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H66" s="6"/>
+      <c r="I66" s="10"/>
+    </row>
+    <row r="67" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="17"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="17"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A69" s="17"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="H69" s="7"/>
+      <c r="I69" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="17">
+        <v>11</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="17"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="17"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H72" s="29"/>
+      <c r="I72" s="10"/>
+    </row>
+    <row r="73" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="17"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H73" s="6"/>
+      <c r="I73" s="10"/>
+    </row>
+    <row r="74" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="17"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="18">
         <v>12</v>
       </c>
-      <c r="B64" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="D64" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="E64" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="F64" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H64" s="6"/>
-    </row>
-    <row r="65" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="24"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H65" s="7"/>
-    </row>
-    <row r="66" spans="1:8" s="5" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="24"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="H66" s="7"/>
-    </row>
-    <row r="67" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="24"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H67" s="6"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H68" s="27"/>
+      <c r="B75" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G75" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="18"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:9" s="4" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="18"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H77" s="7"/>
+      <c r="I77" s="10"/>
+    </row>
+    <row r="78" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="18"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H78" s="5"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="17">
+        <v>13</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="17"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="23">
+        <v>123</v>
+      </c>
+      <c r="H80" s="13"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="17"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H81" s="13"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="17"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="H82" s="13"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="17"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H83" s="13"/>
+      <c r="I83" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E65" xr:uid="{3598CB9C-47B2-420D-8BD0-FE652B244431}"/>
-  <mergeCells count="72">
-    <mergeCell ref="F64:F67"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="E64:E67"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A25:A29"/>
+  <autoFilter ref="E1:E76" xr:uid="{3598CB9C-47B2-420D-8BD0-FE652B244431}"/>
+  <mergeCells count="78">
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="C2:C12"/>
+    <mergeCell ref="D2:D12"/>
+    <mergeCell ref="E2:E12"/>
+    <mergeCell ref="F2:F12"/>
+    <mergeCell ref="F79:F83"/>
+    <mergeCell ref="E79:E83"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="B79:B83"/>
     <mergeCell ref="B59:B63"/>
     <mergeCell ref="C59:C63"/>
     <mergeCell ref="D59:D63"/>
     <mergeCell ref="E59:E63"/>
     <mergeCell ref="F59:F63"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="D53:D58"/>
-    <mergeCell ref="E53:E58"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="D13:D18"/>
-    <mergeCell ref="E13:E18"/>
-    <mergeCell ref="F13:F18"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="E19:E24"/>
-    <mergeCell ref="F19:F24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="C30:C35"/>
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="F30:F35"/>
-    <mergeCell ref="B36:B42"/>
-    <mergeCell ref="C36:C42"/>
-    <mergeCell ref="D36:D42"/>
-    <mergeCell ref="E36:E42"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="F43:F47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="F48:F52"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="F54:F58"/>
+    <mergeCell ref="B46:B53"/>
+    <mergeCell ref="C46:C53"/>
+    <mergeCell ref="D46:D53"/>
+    <mergeCell ref="E46:E53"/>
+    <mergeCell ref="F46:F53"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="F40:F45"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="F35:F39"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="D29:D34"/>
+    <mergeCell ref="E29:E34"/>
+    <mergeCell ref="F29:F34"/>
+    <mergeCell ref="B13:B22"/>
+    <mergeCell ref="C13:C22"/>
+    <mergeCell ref="D13:D22"/>
+    <mergeCell ref="E13:E22"/>
+    <mergeCell ref="F13:F22"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="F23:F28"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="E64:E69"/>
+    <mergeCell ref="F64:F69"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="D70:D74"/>
+    <mergeCell ref="E70:E74"/>
+    <mergeCell ref="F70:F74"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A64:A69"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="E75:E78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Antlr静态检测测试用例.xlsx
+++ b/docs/Antlr静态检测测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\崔楠\研究生\研一上\科研\hive-antipattern\代码\DetectionAndFixOfHiveQLAntiPattern\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C344125-775B-4C01-8DC9-47A229629578}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB5520E-A813-4F66-9809-F12C9AED5DEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="504" yWindow="696" windowWidth="30096" windowHeight="16560" xr2:uid="{136150B0-F801-0E45-82D5-1296C4580FD4}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$74</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="157">
   <si>
     <t>Antipattern</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,10 +217,6 @@
     <t>select t1.col1, t2.col2 from table1 as t1 join table2 as t2 on max(t1.col1) = t2.col2;</t>
   </si>
   <si>
-    <t>当then或else后接变量时会出问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select sum(col3),col2 from t1 group by col1,col2;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,10 +265,6 @@
   </si>
   <si>
     <t>select t1.col1,t2.col2 from t1 join (select count (*) from t3 where t3.age &gt; 18) as t2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select count(*) 理论上也会导致select *类的性能下降</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -333,38 +325,6 @@
   <si>
     <t>提示使用聚集函数，如sum()
 select sum(col1),col2 from t1 group by col1,col2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>静态检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>performance issue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQL字符串匹配以通配符开头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用reverse函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select col1，col2 from table1 where col1 like '%p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select cl1,col2 from table1 where col1 like '%p%'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select col1, col2 from table1 where col1 like '%p'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select col1, col2 from table1 where reverse(col1) like reverse('%p')</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -616,7 +576,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select col1，col2 from table1 where col1 like 'p%'</t>
+    <t>当then或else后接变量时无法判断，算对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件允许时，没有将条目少的表放在join左侧，条目多的表放在join右侧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t1.name from mrtest_50 t1 join mrtest_10 t2 on t1.city = t2.city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t1.name from mrtest_10 t2 join mrtest_50 t1 on t1.city = t2.city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t1.name from mrtest_10 as t2 join mrtest_50 t1 on t1.city = t2.city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select mrtest_50.name from mrtest_50 join mrtest_10 t2 on mrtest_50.city = t2.city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t1.city, avg(t1.age) from mrtest_10 t1 join mrtest_50 t2 on t1.city = t2.city group by t1.city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t1.city, avg(t1.age) from mrtest_50 t1 join mrtest_10 t2 on t1.city = t2.city group by t1.city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t1.col1 from t1 join t2 on t1.id=t2.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">select t1.name from (select t2.name from mrtest_10 t2 join mrtest_50 t3 on t2.city=t3.city) as t1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">select t1.name from (select t2.name from mrtest_50 t2 join mrtest_10 t3 on t2.city=t3.city) as t1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">select t1.name from (select mrtest_10.name from mrtest_10 where mrtest_10.age&gt;20) as t1 join mrtest_50 t2 on t1.city=t2.city </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">select t1.name from (select mrtest_10.name from mrtest_50 where mrtest_50.age&gt;20) as t1 join mrtest_10 t2 on t1.city=t2.city </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t1.name from mrtest_10 t1 join mrtest_50 t2 on t1.city=t2.city join mrtest_500 t3 on t1.city=t3.city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t1.name from mrtest_50 t1 join mrtest_10 t2 on t1.city=t2.city join mrtest_500 t3 on t1.city=t3.city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t1.name from mrtest_10 t1 join mrtest_500 t2 on t1.city=t2.city join mrtest_50 t3 on t1.city=t3.city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建多个相同的表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示“重复建表”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table mrtest_50 (name String, age int, city int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table mrtest_502 (name String, age int, city int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Columns contained in creating table have already existed in other table.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table mrtest_50 (a String, b int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table mrtest_502(a String, b int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在有分区的表上没有使用分区查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select name from partitiontable;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warning! Please utilize partition in the query.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select name from partitiontable where name='cn';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select name from partitiontable where city='changzhou';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select name from partitiontable where city='changzhou' and name='cn';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select name from partitiontable where name+1='cn' and city='changzhou'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,7 +815,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -787,46 +867,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1143,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAF55D8-6123-6844-AB14-D7B75BAB7430}">
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1156,14 +1227,14 @@
     <col min="4" max="4" width="30.54296875" customWidth="1"/>
     <col min="5" max="5" width="12.453125" customWidth="1"/>
     <col min="6" max="6" width="18.81640625" customWidth="1"/>
-    <col min="7" max="7" width="33.1796875" style="23" customWidth="1"/>
+    <col min="7" max="7" width="33.1796875" style="18" customWidth="1"/>
     <col min="8" max="8" width="30.08984375" customWidth="1"/>
     <col min="9" max="9" width="13.54296875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
@@ -1180,1232 +1251,1448 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="17" t="s">
         <v>33</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="I1" s="16" t="s">
         <v>34</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>46</v>
+      <c r="G2" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="23" t="s">
-        <v>49</v>
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="23" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="18" t="s">
         <v>35</v>
       </c>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="24" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="19" t="s">
         <v>36</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="23" t="s">
-        <v>77</v>
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="18" t="s">
+        <v>67</v>
       </c>
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="24" t="s">
-        <v>43</v>
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="H7" s="8"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="24" t="s">
-        <v>78</v>
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" s="27"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="21"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="24" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="24">
+        <v>2</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="24" t="s">
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="27"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
-        <v>2</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="23" t="s">
-        <v>100</v>
-      </c>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="23" t="s">
-        <v>96</v>
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="23" t="s">
-        <v>101</v>
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="18" t="s">
+        <v>91</v>
       </c>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="23" t="s">
-        <v>102</v>
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="23" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="24">
+        <v>3</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
-        <v>3</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="21" t="s">
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="24">
+        <v>4</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F29" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="17">
-        <v>4</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>109</v>
+      <c r="G29" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="23" t="s">
-        <v>110</v>
+      <c r="A30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="18" t="s">
+        <v>100</v>
       </c>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" s="26"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="20"/>
       <c r="I31" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="23" t="s">
-        <v>54</v>
+      <c r="A32" s="24"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="H32" s="14"/>
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="23" t="s">
-        <v>111</v>
+      <c r="A33" s="24"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="18" t="s">
+        <v>101</v>
       </c>
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="23" t="s">
-        <v>112</v>
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:10" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="17">
+      <c r="A35" s="24">
         <v>5</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="H35" s="28"/>
+      <c r="G35" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35" s="22"/>
     </row>
     <row r="36" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="23" t="s">
-        <v>114</v>
+      <c r="A36" s="24"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="18" t="s">
+        <v>104</v>
       </c>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="23" t="s">
-        <v>58</v>
+      <c r="A37" s="24"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="18" t="s">
+        <v>56</v>
       </c>
       <c r="H37" s="15"/>
       <c r="I37" s="10"/>
     </row>
     <row r="38" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="23" t="s">
-        <v>115</v>
+      <c r="A38" s="24"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="23" t="s">
-        <v>116</v>
+      <c r="A39" s="24"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="18" t="s">
+        <v>106</v>
       </c>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="17">
+      <c r="A40" s="24">
         <v>6</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="21" t="s">
+      <c r="F40" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="22" t="s">
+      <c r="G40" s="17" t="s">
         <v>20</v>
       </c>
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="23" t="s">
-        <v>117</v>
+      <c r="A41" s="24"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="18" t="s">
+        <v>107</v>
       </c>
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="23" t="s">
+      <c r="A42" s="24"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="18" t="s">
         <v>38</v>
       </c>
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="24" t="s">
-        <v>57</v>
+      <c r="A43" s="24"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="H43" s="6"/>
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="24" t="s">
-        <v>55</v>
+      <c r="A44" s="24"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="10"/>
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="17"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="23" t="s">
-        <v>118</v>
+      <c r="A45" s="24"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="17">
+      <c r="A46" s="24">
         <v>7</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21" t="s">
+      <c r="C46" s="26"/>
+      <c r="D46" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="E46" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="21" t="s">
+      <c r="F46" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G46" s="23" t="s">
-        <v>60</v>
+      <c r="G46" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="17"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="23" t="s">
-        <v>119</v>
+      <c r="A47" s="24"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="17"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="23" t="s">
-        <v>120</v>
+      <c r="A48" s="24"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="23" t="s">
-        <v>59</v>
+      <c r="A49" s="24"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="10"/>
     </row>
     <row r="50" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="17"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="23" t="s">
-        <v>61</v>
+      <c r="A50" s="24"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="10"/>
     </row>
     <row r="51" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="17"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="23" t="s">
-        <v>121</v>
+      <c r="A51" s="24"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="17"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="23" t="s">
-        <v>123</v>
+      <c r="A52" s="24"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="17"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="24" t="s">
-        <v>122</v>
+      <c r="A53" s="24"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="19" t="s">
+        <v>112</v>
       </c>
       <c r="H53" s="5"/>
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="17">
+      <c r="A54" s="24">
         <v>8</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21" t="s">
+      <c r="C54" s="26"/>
+      <c r="D54" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="E54" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="21" t="s">
+      <c r="F54" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G54" s="23" t="s">
-        <v>124</v>
+      <c r="G54" s="18" t="s">
+        <v>114</v>
       </c>
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="17"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="23" t="s">
-        <v>125</v>
+      <c r="A55" s="24"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="18" t="s">
+        <v>115</v>
       </c>
       <c r="H55" s="5"/>
     </row>
     <row r="56" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="17"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="23" t="s">
+      <c r="A56" s="24"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="24"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="24"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="24">
+        <v>9</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="24"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="24"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="H61" s="5"/>
+      <c r="I61" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H56" s="6"/>
-    </row>
-    <row r="57" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="17"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="H57" s="5"/>
-    </row>
-    <row r="58" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="17"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="H58" s="5"/>
-    </row>
-    <row r="59" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="17">
-        <v>9</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E59" s="21" t="s">
+    </row>
+    <row r="62" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="24"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="24"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="24">
+        <v>10</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E64" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="H59" s="6"/>
-    </row>
-    <row r="60" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="17"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="H60" s="6"/>
-    </row>
-    <row r="61" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="17"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="H61" s="7"/>
-      <c r="I61" s="3" t="s">
+      <c r="F64" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="24"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="17"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="H62" s="6"/>
-    </row>
-    <row r="63" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="17"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="H63" s="5"/>
-    </row>
-    <row r="64" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="17">
-        <v>10</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E64" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G64" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="H64" s="6"/>
-    </row>
-    <row r="65" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="17"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="23" t="s">
-        <v>40</v>
-      </c>
       <c r="H65" s="5"/>
     </row>
     <row r="66" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="17"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="23" t="s">
-        <v>61</v>
+      <c r="A66" s="24"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="10"/>
     </row>
     <row r="67" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="17"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="23" t="s">
-        <v>56</v>
+      <c r="A67" s="24"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="17"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="23" t="s">
-        <v>41</v>
+      <c r="A68" s="24"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="H68" s="5"/>
     </row>
     <row r="69" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="17"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="24" t="s">
-        <v>134</v>
+      <c r="A69" s="24"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="H69" s="7"/>
       <c r="I69" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="17">
+      <c r="A70" s="24">
         <v>11</v>
       </c>
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="21" t="s">
+      <c r="D70" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E70" s="21" t="s">
+      <c r="E70" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="21" t="s">
+      <c r="F70" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G70" s="23" t="s">
-        <v>47</v>
+      <c r="G70" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A71" s="17"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="23" t="s">
-        <v>135</v>
+      <c r="A71" s="24"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="18" t="s">
+        <v>125</v>
       </c>
       <c r="H71" s="5"/>
     </row>
     <row r="72" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A72" s="17"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="H72" s="29"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H72" s="23"/>
       <c r="I72" s="10"/>
     </row>
     <row r="73" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A73" s="17"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="23" t="s">
-        <v>62</v>
+      <c r="A73" s="24"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="18" t="s">
+        <v>60</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="10"/>
     </row>
     <row r="74" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A74" s="17"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="23" t="s">
-        <v>50</v>
+      <c r="A74" s="24"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="H74" s="6"/>
     </row>
     <row r="75" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A75" s="18">
+      <c r="A75" s="24">
         <v>12</v>
       </c>
-      <c r="B75" s="30" t="s">
+      <c r="B75" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="24"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H76" s="5"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="24"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="H77" s="5"/>
+    </row>
+    <row r="78" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="24"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="H78" s="5"/>
+    </row>
+    <row r="79" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A79" s="24"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H79" s="5"/>
+    </row>
+    <row r="80" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A80" s="24"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H80" s="5"/>
+    </row>
+    <row r="81" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="24"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H81" s="5"/>
+    </row>
+    <row r="82" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="24"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H82" s="6"/>
+      <c r="J82" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="24"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="24"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="24"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="24"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" s="24">
+        <v>13</v>
+      </c>
+      <c r="B87" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C75" s="19" t="s">
+      <c r="C87" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D87" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D75" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F75" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G75" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="H75" s="5"/>
-    </row>
-    <row r="76" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A76" s="18"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="23" t="s">
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="H76" s="7"/>
-    </row>
-    <row r="77" spans="1:9" s="4" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="18"/>
-      <c r="B77" s="30"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="24" t="s">
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" s="24"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="18">
+        <v>123</v>
+      </c>
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" s="24"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="H77" s="7"/>
-      <c r="I77" s="10"/>
-    </row>
-    <row r="78" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A78" s="18"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="23" t="s">
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" s="24"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="H78" s="5"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="17">
-        <v>13</v>
-      </c>
-      <c r="B79" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="H79" s="7"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="17"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="23">
-        <v>123</v>
-      </c>
-      <c r="H80" s="13"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="17"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="23" t="s">
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" s="24"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H91" s="13"/>
+      <c r="I91" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H81" s="13"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="17"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="H82" s="13"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="17"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="H83" s="13"/>
-      <c r="I83" s="3" t="s">
-        <v>94</v>
-      </c>
+    </row>
+    <row r="92" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="24">
+        <v>14</v>
+      </c>
+      <c r="B92" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C92" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" s="24"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H93" s="6"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" s="24"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="H94" s="5"/>
+    </row>
+    <row r="95" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A95" s="24"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="H95" s="6"/>
+    </row>
+    <row r="96" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="24">
+        <v>15</v>
+      </c>
+      <c r="B96" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="D96" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="H96" s="6"/>
+    </row>
+    <row r="97" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="24"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H97" s="5"/>
+    </row>
+    <row r="98" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="24"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H98" s="5"/>
+    </row>
+    <row r="99" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="24"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="H99" s="5"/>
+    </row>
+    <row r="100" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A100" s="24"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="H100" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E76" xr:uid="{3598CB9C-47B2-420D-8BD0-FE652B244431}"/>
-  <mergeCells count="78">
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="C2:C12"/>
-    <mergeCell ref="D2:D12"/>
-    <mergeCell ref="E2:E12"/>
-    <mergeCell ref="F2:F12"/>
-    <mergeCell ref="F79:F83"/>
-    <mergeCell ref="E79:E83"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="C79:C83"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="D59:D63"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="F59:F63"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="E54:E58"/>
-    <mergeCell ref="F54:F58"/>
-    <mergeCell ref="B46:B53"/>
-    <mergeCell ref="C46:C53"/>
-    <mergeCell ref="D46:D53"/>
-    <mergeCell ref="E46:E53"/>
-    <mergeCell ref="F46:F53"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="E40:E45"/>
-    <mergeCell ref="F40:F45"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="F35:F39"/>
-    <mergeCell ref="B29:B34"/>
+  <autoFilter ref="E1:E74" xr:uid="{3598CB9C-47B2-420D-8BD0-FE652B244431}"/>
+  <mergeCells count="90">
+    <mergeCell ref="F92:F95"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="B96:B100"/>
+    <mergeCell ref="C96:C100"/>
+    <mergeCell ref="D96:D100"/>
+    <mergeCell ref="E96:E100"/>
+    <mergeCell ref="F96:F100"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="A75:A86"/>
+    <mergeCell ref="B75:B86"/>
+    <mergeCell ref="C75:C86"/>
+    <mergeCell ref="D75:D86"/>
+    <mergeCell ref="E75:E86"/>
+    <mergeCell ref="F75:F86"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A64:A69"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="D70:D74"/>
+    <mergeCell ref="E70:E74"/>
+    <mergeCell ref="F70:F74"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="E64:E69"/>
+    <mergeCell ref="F64:F69"/>
     <mergeCell ref="C29:C34"/>
     <mergeCell ref="D29:D34"/>
     <mergeCell ref="E29:E34"/>
@@ -2420,32 +2707,44 @@
     <mergeCell ref="D23:D28"/>
     <mergeCell ref="E23:E28"/>
     <mergeCell ref="F23:F28"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="C64:C69"/>
-    <mergeCell ref="D64:D69"/>
-    <mergeCell ref="E64:E69"/>
-    <mergeCell ref="F64:F69"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="D70:D74"/>
-    <mergeCell ref="E70:E74"/>
-    <mergeCell ref="F70:F74"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A46:A53"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A64:A69"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="F40:F45"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="F35:F39"/>
+    <mergeCell ref="E2:E12"/>
+    <mergeCell ref="F2:F12"/>
+    <mergeCell ref="F87:F91"/>
+    <mergeCell ref="E87:E91"/>
+    <mergeCell ref="D87:D91"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="F59:F63"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="F54:F58"/>
+    <mergeCell ref="D46:D53"/>
+    <mergeCell ref="E46:E53"/>
+    <mergeCell ref="F46:F53"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="C2:C12"/>
+    <mergeCell ref="D2:D12"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="B46:B53"/>
+    <mergeCell ref="C46:C53"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="B29:B34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Antlr静态检测测试用例.xlsx
+++ b/docs/Antlr静态检测测试用例.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\崔楠\研究生\研一上\科研\hive-antipattern\代码\DetectionAndFixOfHiveQLAntiPattern\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kayaetsuden/DetectionAndFixOfHiveQLAntiPattern/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB5520E-A813-4F66-9809-F12C9AED5DEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789EAA1F-6D7E-434B-9A6A-B1B45A5695BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="504" yWindow="696" windowWidth="30096" windowHeight="16560" xr2:uid="{136150B0-F801-0E45-82D5-1296C4580FD4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{136150B0-F801-0E45-82D5-1296C4580FD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$72</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="156">
   <si>
     <t>Antipattern</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,10 +288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select sum(col1), col2, distinct col3 from t1 group by col1, col2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select col1,col2 from t1 group by col1,col2;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -460,14 +456,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select t1.col1,t2.col2 from t1 join (select * from t3 where t3.age &gt; 18) as t2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from t1 join (select t3.name,t3.sex from t3 where t3.age &gt; 18) as t2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select * from t1 order by age;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -697,6 +685,14 @@
   </si>
   <si>
     <t>select name from partitiontable where name+1='cn' and city='changzhou'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t1.col1 from t1 where t1.id+1=2 and t1.name = 'a'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,7 +700,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -815,7 +811,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -888,16 +884,19 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1214,25 +1213,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAF55D8-6123-6844-AB14-D7B75BAB7430}">
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="31.453125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29.1796875" customWidth="1"/>
-    <col min="4" max="4" width="30.54296875" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="18.81640625" customWidth="1"/>
-    <col min="7" max="7" width="33.1796875" style="18" customWidth="1"/>
-    <col min="8" max="8" width="30.08984375" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="33.1640625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="30.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="68">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
@@ -1255,7 +1254,7 @@
         <v>33</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I1" s="16" t="s">
         <v>34</v>
@@ -1263,24 +1262,27 @@
       <c r="J1" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="24">
+      <c r="L1" s="24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="34">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="28" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="17" t="s">
@@ -1288,1463 +1290,1464 @@
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
+    <row r="3" spans="1:12" ht="68">
+      <c r="A3" s="25"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
       <c r="G3" s="18" t="s">
         <v>48</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="68">
+      <c r="A4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
       <c r="G4" s="18" t="s">
         <v>35</v>
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+    <row r="5" spans="1:12" s="4" customFormat="1" ht="68">
+      <c r="A5" s="25"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
       <c r="G5" s="19" t="s">
         <v>36</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+    <row r="6" spans="1:12" ht="68">
+      <c r="A6" s="25"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
       <c r="G6" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+    <row r="7" spans="1:12" ht="51">
+      <c r="A7" s="25"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
       <c r="G7" s="19" t="s">
         <v>42</v>
       </c>
       <c r="H7" s="8"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+    <row r="8" spans="1:12" ht="119">
+      <c r="A8" s="25"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+    <row r="9" spans="1:12" ht="51">
+      <c r="A9" s="25"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H9" s="21"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+    <row r="10" spans="1:12" ht="34">
+      <c r="A10" s="25"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H10" s="22"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+    <row r="11" spans="1:12" ht="51">
+      <c r="A11" s="25"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
       <c r="G11" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H11" s="22"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+    <row r="12" spans="1:12" ht="119">
+      <c r="A12" s="25"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
       <c r="G12" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="21"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="24">
+    <row r="13" spans="1:12" ht="51">
+      <c r="A13" s="25">
         <v>2</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="28" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
+    <row r="14" spans="1:12" ht="17">
+      <c r="A14" s="25"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" ht="68">
+      <c r="A15" s="25"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" ht="51">
+      <c r="A16" s="25"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" ht="51">
+      <c r="A17" s="25"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" ht="51">
+      <c r="A18" s="25"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="18" t="s">
         <v>85</v>
-      </c>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="18" t="s">
-        <v>86</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="51">
+      <c r="A19" s="25"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" ht="51">
+      <c r="A20" s="25"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" ht="68">
+      <c r="A21" s="25"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" ht="34">
+      <c r="A22" s="25"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" ht="68">
+      <c r="A23" s="25"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" ht="17">
+      <c r="A24" s="25">
+        <v>3</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="18" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="24">
-        <v>3</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="26" t="s">
+      <c r="H24" s="5"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" ht="51">
+      <c r="A25" s="25"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" ht="51">
+      <c r="A26" s="25"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="10"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" ht="17">
+      <c r="A27" s="25"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" ht="17">
+      <c r="A28" s="25">
+        <v>4</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F28" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="18" t="s">
+      <c r="G28" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="18" t="s">
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" ht="17">
+      <c r="A29" s="25"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="18" t="s">
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" ht="34">
+      <c r="A30" s="25"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" ht="51">
+      <c r="A31" s="25"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="14"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" ht="51">
+      <c r="A32" s="25"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="24">
-        <v>4</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="26" t="s">
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:12" ht="68">
+      <c r="A33" s="25"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:12" ht="119">
+      <c r="A34" s="25">
+        <v>5</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F34" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="18" t="s">
+      <c r="G34" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" s="14"/>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="18" t="s">
+      <c r="H34" s="22"/>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="1:12" ht="51">
+      <c r="A35" s="25"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="18" t="s">
+      <c r="H35" s="5"/>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="1:12" ht="68">
+      <c r="A36" s="25"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="10"/>
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="1:12" ht="51">
+      <c r="A37" s="25"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="1:10" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="24">
-        <v>5</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="26" t="s">
+      <c r="H37" s="5"/>
+      <c r="L37" s="5"/>
+    </row>
+    <row r="38" spans="1:12" ht="68">
+      <c r="A38" s="25"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="L38" s="5"/>
+    </row>
+    <row r="39" spans="1:12" ht="68">
+      <c r="A39" s="25">
+        <v>6</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F39" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="H35" s="22"/>
-    </row>
-    <row r="36" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="24"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="18" t="s">
+      <c r="G39" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:12" ht="51">
+      <c r="A40" s="25"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="10"/>
-    </row>
-    <row r="38" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="18" t="s">
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:12" ht="51">
+      <c r="A41" s="25"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:12" ht="34">
+      <c r="A42" s="25"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:12" ht="51">
+      <c r="A43" s="25"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:12" ht="34">
+      <c r="A44" s="25"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="18" t="s">
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:12" ht="35.5" customHeight="1">
+      <c r="A45" s="25">
+        <v>7</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="L45" s="5"/>
+    </row>
+    <row r="46" spans="1:12" ht="31.25" customHeight="1">
+      <c r="A46" s="25"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="24">
-        <v>6</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="26" t="s">
+      <c r="H46" s="6"/>
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="1:12" ht="34">
+      <c r="A47" s="25"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H47" s="5"/>
+      <c r="L47" s="5"/>
+    </row>
+    <row r="48" spans="1:12" ht="51">
+      <c r="A48" s="25"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="10"/>
+      <c r="L48" s="5"/>
+    </row>
+    <row r="49" spans="1:12" ht="51">
+      <c r="A49" s="25"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="L49" s="5"/>
+    </row>
+    <row r="50" spans="1:12" ht="68">
+      <c r="A50" s="25"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="L50" s="5"/>
+    </row>
+    <row r="51" spans="1:12" ht="68">
+      <c r="A51" s="25"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H51" s="5"/>
+      <c r="J51" s="4"/>
+      <c r="L51" s="5"/>
+    </row>
+    <row r="52" spans="1:12" ht="34">
+      <c r="A52" s="25">
+        <v>8</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F52" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H52" s="6"/>
+      <c r="L52" s="5"/>
+    </row>
+    <row r="53" spans="1:12" ht="34">
+      <c r="A53" s="25"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H53" s="5"/>
+      <c r="L53" s="5"/>
+    </row>
+    <row r="54" spans="1:12" ht="34">
+      <c r="A54" s="25"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H54" s="6"/>
+      <c r="L54" s="5"/>
+    </row>
+    <row r="55" spans="1:12" ht="51">
+      <c r="A55" s="25"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H55" s="5"/>
+      <c r="L55" s="5"/>
+    </row>
+    <row r="56" spans="1:12" ht="51">
+      <c r="A56" s="25"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H56" s="5"/>
+      <c r="L56" s="5"/>
+    </row>
+    <row r="57" spans="1:12" ht="51">
+      <c r="A57" s="25">
+        <v>9</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="1:12" ht="51">
+      <c r="A58" s="25"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:12" ht="85">
+      <c r="A59" s="25"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="H59" s="5"/>
+      <c r="I59" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="85">
+      <c r="A60" s="25"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:12" ht="68">
+      <c r="A61" s="25"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="1:12" ht="28.25" customHeight="1">
+      <c r="A62" s="25">
+        <v>10</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="24"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H43" s="6"/>
-      <c r="J43" s="4"/>
-    </row>
-    <row r="44" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="H44" s="6"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="4"/>
-    </row>
-    <row r="45" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="24">
-        <v>7</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H46" s="5"/>
-    </row>
-    <row r="47" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="24"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="24"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="24"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="18" t="s">
+      <c r="G62" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H49" s="6"/>
-      <c r="I49" s="10"/>
-    </row>
-    <row r="50" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="24"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="10"/>
-    </row>
-    <row r="51" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="24"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="24"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="24"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="H53" s="5"/>
-      <c r="J53" s="4"/>
-    </row>
-    <row r="54" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="24">
-        <v>8</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="24"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="H55" s="5"/>
-    </row>
-    <row r="56" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="24"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="H56" s="6"/>
-    </row>
-    <row r="57" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="24"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="H57" s="5"/>
-    </row>
-    <row r="58" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="24"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="H58" s="5"/>
-    </row>
-    <row r="59" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="24">
-        <v>9</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E59" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="H59" s="6"/>
-    </row>
-    <row r="60" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="24"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="H60" s="6"/>
-    </row>
-    <row r="61" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="24"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="H61" s="5"/>
-      <c r="I61" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="24"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="18" t="s">
-        <v>122</v>
-      </c>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="24"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
+    <row r="63" spans="1:12" ht="34">
+      <c r="A63" s="25"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
       <c r="G63" s="18" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="H63" s="5"/>
     </row>
-    <row r="64" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="24">
-        <v>10</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E64" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="26" t="s">
-        <v>7</v>
-      </c>
+    <row r="64" spans="1:12" ht="51">
+      <c r="A64" s="25"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
       <c r="G64" s="18" t="s">
         <v>58</v>
       </c>
       <c r="H64" s="6"/>
-    </row>
-    <row r="65" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="24"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
+      <c r="I64" s="10"/>
+    </row>
+    <row r="65" spans="1:10" ht="68">
+      <c r="A65" s="25"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
       <c r="G65" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H65" s="5"/>
-    </row>
-    <row r="66" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="24"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
+        <v>54</v>
+      </c>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="1:10" ht="68">
+      <c r="A66" s="25"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
       <c r="G66" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" spans="1:10" ht="85">
+      <c r="A67" s="25"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="H67" s="7"/>
+      <c r="I67" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="51">
+      <c r="A68" s="25">
+        <v>11</v>
+      </c>
+      <c r="B68" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="1:10" ht="51">
+      <c r="A69" s="25"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="1:10" ht="51">
+      <c r="A70" s="25"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H70" s="23"/>
+      <c r="I70" s="10"/>
+    </row>
+    <row r="71" spans="1:10" ht="51">
+      <c r="A71" s="25"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="H66" s="6"/>
-      <c r="I66" s="10"/>
-    </row>
-    <row r="67" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="24"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H67" s="6"/>
-    </row>
-    <row r="68" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="24"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H68" s="5"/>
-    </row>
-    <row r="69" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="24"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="19" t="s">
+      <c r="H71" s="6"/>
+      <c r="I71" s="10"/>
+    </row>
+    <row r="72" spans="1:10" ht="34">
+      <c r="A72" s="25"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="1:10" ht="34">
+      <c r="A73" s="25">
+        <v>12</v>
+      </c>
+      <c r="B73" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="H69" s="7"/>
-      <c r="I69" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="24">
-        <v>11</v>
-      </c>
-      <c r="B70" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D70" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E70" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G70" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H70" s="6"/>
-    </row>
-    <row r="71" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A71" s="24"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="18" t="s">
+      <c r="C73" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="H71" s="5"/>
-    </row>
-    <row r="72" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A72" s="24"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="H72" s="23"/>
-      <c r="I72" s="10"/>
-    </row>
-    <row r="73" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A73" s="24"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
+      <c r="D73" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
       <c r="G73" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H73" s="6"/>
-      <c r="I73" s="10"/>
-    </row>
-    <row r="74" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A74" s="24"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
+        <v>127</v>
+      </c>
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" spans="1:10" ht="51">
+      <c r="A74" s="25"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
       <c r="G74" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H74" s="6"/>
-    </row>
-    <row r="75" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A75" s="24">
-        <v>12</v>
-      </c>
-      <c r="B75" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C75" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="D75" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="1:10" ht="34">
+      <c r="A75" s="25"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
       <c r="G75" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H75" s="5"/>
     </row>
-    <row r="76" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="24"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
+    <row r="76" spans="1:10" ht="51">
+      <c r="A76" s="25"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
       <c r="G76" s="18" t="s">
         <v>132</v>
       </c>
       <c r="H76" s="5"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="24"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
+    <row r="77" spans="1:10" ht="68">
+      <c r="A77" s="25"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
       <c r="G77" s="18" t="s">
         <v>134</v>
       </c>
       <c r="H77" s="5"/>
     </row>
-    <row r="78" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="24"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
+    <row r="78" spans="1:10" ht="68">
+      <c r="A78" s="25"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
       <c r="G78" s="18" t="s">
         <v>135</v>
       </c>
       <c r="H78" s="5"/>
     </row>
-    <row r="79" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A79" s="24"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
+    <row r="79" spans="1:10" ht="51">
+      <c r="A79" s="25"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
       <c r="G79" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="H79" s="5"/>
+    </row>
+    <row r="80" spans="1:10" ht="51">
+      <c r="A80" s="25"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="H79" s="5"/>
-    </row>
-    <row r="80" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A80" s="24"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="18" t="s">
+      <c r="H80" s="6"/>
+      <c r="J80" t="s">
         <v>138</v>
       </c>
-      <c r="H80" s="5"/>
-    </row>
-    <row r="81" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="24"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
+    </row>
+    <row r="81" spans="1:12" ht="51">
+      <c r="A81" s="25"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
       <c r="G81" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="H81" s="5"/>
-    </row>
-    <row r="82" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="24"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:12" ht="51">
+      <c r="A82" s="25"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
       <c r="G82" s="18" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H82" s="6"/>
-      <c r="J82" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="24"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
+    </row>
+    <row r="83" spans="1:12" ht="51">
+      <c r="A83" s="25"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
       <c r="G83" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="H83" s="7"/>
-    </row>
-    <row r="84" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="24"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
+        <v>130</v>
+      </c>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="1:12" ht="49.25" customHeight="1">
+      <c r="A84" s="25"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
       <c r="G84" s="18" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="24"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
+    <row r="85" spans="1:12" ht="17">
+      <c r="A85" s="25">
+        <v>13</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D85" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
       <c r="G85" s="18" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="24"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="18" t="s">
-        <v>131</v>
+    <row r="86" spans="1:12">
+      <c r="A86" s="25"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="18">
+        <v>123</v>
       </c>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" s="24">
-        <v>13</v>
-      </c>
-      <c r="B87" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C87" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D87" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
+    <row r="87" spans="1:12" ht="17">
+      <c r="A87" s="25"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
       <c r="G87" s="18" t="s">
         <v>73</v>
       </c>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="24"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="18">
-        <v>123</v>
+    <row r="88" spans="1:12" ht="17">
+      <c r="A88" s="25"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" s="24"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
+    <row r="89" spans="1:12" ht="17">
+      <c r="A89" s="25"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
       <c r="G89" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="H89" s="6"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="24"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
+        <v>75</v>
+      </c>
+      <c r="H89" s="13"/>
+      <c r="I89" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="34">
+      <c r="A90" s="25">
+        <v>14</v>
+      </c>
+      <c r="B90" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C90" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D90" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
       <c r="G90" s="18" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="24"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
+    <row r="91" spans="1:12" ht="17">
+      <c r="A91" s="25"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
       <c r="G91" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H91" s="13"/>
-      <c r="I91" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A92" s="24">
-        <v>14</v>
-      </c>
-      <c r="B92" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="H91" s="6"/>
+    </row>
+    <row r="92" spans="1:12" ht="34">
+      <c r="A92" s="25"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="H92" s="5"/>
+    </row>
+    <row r="93" spans="1:12" ht="34">
+      <c r="A93" s="25"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C92" s="27" t="s">
+      <c r="H93" s="6"/>
+    </row>
+    <row r="94" spans="1:12" ht="31.25" customHeight="1">
+      <c r="A94" s="25">
+        <v>15</v>
+      </c>
+      <c r="B94" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D92" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="H92" s="6"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" s="24"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="18" t="s">
+      <c r="C94" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="H93" s="6"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94" s="24"/>
-      <c r="B94" s="27"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
+      <c r="D94" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
       <c r="G94" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="H94" s="5"/>
-    </row>
-    <row r="95" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A95" s="24"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
+        <v>148</v>
+      </c>
+      <c r="H94" s="6"/>
+      <c r="L94" s="5"/>
+    </row>
+    <row r="95" spans="1:12" ht="31.25" customHeight="1">
+      <c r="A95" s="25"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
       <c r="G95" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="H95" s="6"/>
-    </row>
-    <row r="96" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="24">
-        <v>15</v>
-      </c>
-      <c r="B96" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="H95" s="5"/>
+      <c r="L95" s="5"/>
+    </row>
+    <row r="96" spans="1:12" ht="31.25" customHeight="1">
+      <c r="A96" s="25"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="H96" s="5"/>
+      <c r="L96" s="5"/>
+    </row>
+    <row r="97" spans="1:12" ht="31.25" customHeight="1">
+      <c r="A97" s="25"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="H97" s="5"/>
+      <c r="L97" s="5"/>
+    </row>
+    <row r="98" spans="1:12" ht="34">
+      <c r="A98" s="25"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="C96" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="D96" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="H96" s="6"/>
-    </row>
-    <row r="97" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="24"/>
-      <c r="B97" s="27"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="H97" s="5"/>
-    </row>
-    <row r="98" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="24"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="H98" s="5"/>
-    </row>
-    <row r="99" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="24"/>
-      <c r="B99" s="27"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="H99" s="5"/>
-    </row>
-    <row r="100" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A100" s="24"/>
-      <c r="B100" s="27"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="H100" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="L98" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E74" xr:uid="{3598CB9C-47B2-420D-8BD0-FE652B244431}"/>
+  <autoFilter ref="E1:E72" xr:uid="{3598CB9C-47B2-420D-8BD0-FE652B244431}"/>
   <mergeCells count="90">
-    <mergeCell ref="F92:F95"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="B96:B100"/>
-    <mergeCell ref="C96:C100"/>
-    <mergeCell ref="D96:D100"/>
-    <mergeCell ref="E96:E100"/>
-    <mergeCell ref="F96:F100"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="A75:A86"/>
-    <mergeCell ref="B75:B86"/>
-    <mergeCell ref="C75:C86"/>
-    <mergeCell ref="D75:D86"/>
-    <mergeCell ref="E75:E86"/>
-    <mergeCell ref="F75:F86"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A46:A53"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A64:A69"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="D70:D74"/>
-    <mergeCell ref="E70:E74"/>
-    <mergeCell ref="F70:F74"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="C64:C69"/>
-    <mergeCell ref="D64:D69"/>
-    <mergeCell ref="E64:E69"/>
-    <mergeCell ref="F64:F69"/>
-    <mergeCell ref="C29:C34"/>
-    <mergeCell ref="D29:D34"/>
-    <mergeCell ref="E29:E34"/>
-    <mergeCell ref="F29:F34"/>
-    <mergeCell ref="B13:B22"/>
-    <mergeCell ref="C13:C22"/>
-    <mergeCell ref="D13:D22"/>
-    <mergeCell ref="E13:E22"/>
-    <mergeCell ref="F13:F22"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="F23:F28"/>
-    <mergeCell ref="F40:F45"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="F35:F39"/>
-    <mergeCell ref="E2:E12"/>
-    <mergeCell ref="F2:F12"/>
-    <mergeCell ref="F87:F91"/>
-    <mergeCell ref="E87:E91"/>
-    <mergeCell ref="D87:D91"/>
-    <mergeCell ref="D59:D63"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="F59:F63"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="E54:E58"/>
-    <mergeCell ref="F54:F58"/>
-    <mergeCell ref="D46:D53"/>
-    <mergeCell ref="E46:E53"/>
-    <mergeCell ref="F46:F53"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="E40:E45"/>
-    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A85:A89"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B2:B12"/>
     <mergeCell ref="C2:C12"/>
     <mergeCell ref="D2:D12"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="B46:B53"/>
-    <mergeCell ref="C46:C53"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="C85:C89"/>
+    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="C45:C51"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="E2:E12"/>
+    <mergeCell ref="F2:F12"/>
+    <mergeCell ref="F85:F89"/>
+    <mergeCell ref="E85:E89"/>
+    <mergeCell ref="D85:D89"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="E57:E61"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="E52:E56"/>
+    <mergeCell ref="F52:F56"/>
+    <mergeCell ref="D45:D51"/>
+    <mergeCell ref="E45:E51"/>
+    <mergeCell ref="F45:F51"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="F28:F33"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="D13:D23"/>
+    <mergeCell ref="E13:E23"/>
+    <mergeCell ref="F13:F23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="D62:D67"/>
+    <mergeCell ref="E62:E67"/>
+    <mergeCell ref="F62:F67"/>
+    <mergeCell ref="F73:F84"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="D68:D72"/>
+    <mergeCell ref="E68:E72"/>
+    <mergeCell ref="F68:F72"/>
+    <mergeCell ref="A73:A84"/>
+    <mergeCell ref="B73:B84"/>
+    <mergeCell ref="C73:C84"/>
+    <mergeCell ref="D73:D84"/>
+    <mergeCell ref="E73:E84"/>
+    <mergeCell ref="F90:F93"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="C94:C98"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="E94:E98"/>
+    <mergeCell ref="F94:F98"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="D90:D93"/>
+    <mergeCell ref="E90:E93"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
